--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>802702.4574860921</v>
+        <v>800266.8205623857</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673452</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>237.7013304981615</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.4586914107021</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>130.4667823470851</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728595</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65.80753457396706</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>85.01332075948457</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550703</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>24.10372922669533</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>357.638517036052</v>
+        <v>3.171820953549632</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114112</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035309</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009503</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1582,10 +1582,10 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.5083864278868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754662</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6100397066847</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>29.24923305751728</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986258</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419834025</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5981994227934</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.294096136281017</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272886</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>95.12712756824166</v>
+        <v>120.7871326503937</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>175.0948681033051</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8873577254024</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936194</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560542</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288553111</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703267</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G46" t="n">
-        <v>29.24923305751716</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619114</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.385526619114</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>759.5972740208692</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>348.6113692312617</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.3683227675135</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419976</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439803</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.3683227675135</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2734.312968633809</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.544313363695</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>332.8675597612649</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1860.822290943071</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1669.136406769897</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1669.136406769897</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1380.033539895541</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1125.349051689654</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.349051689654</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>1125.349051689654</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3033.756032822195</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3033.756032822195</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2680.987377552081</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2307.521619291001</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1917.382287315189</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5472171493652</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1621.43100543376</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1621.43100543376</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1366.746517227873</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1077.329347190913</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>849.3397962928954</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>628.5472171493652</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.551659540957</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.589142600546</v>
+        <v>1166.296315748936</v>
       </c>
       <c r="D11" t="n">
-        <v>1265.323443993796</v>
+        <v>808.0306171421853</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846522</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950447</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469172</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469172</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765421</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856278</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234586</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455656</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455656</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3826.588132455656</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3495.525245112085</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3142.756589841971</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2769.290831580891</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2379.151499605079</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
@@ -5115,31 +5115,31 @@
         <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792125</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376495</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649586</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908847</v>
+        <v>977.3905023848074</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259914</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>859.8468271686951</v>
+        <v>203.8650582458538</v>
       </c>
       <c r="C13" t="n">
-        <v>690.9106442407882</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="D13" t="n">
-        <v>540.7940048284524</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460593</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="F13" t="n">
-        <v>245.990963748149</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457699</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888908</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906985</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457031</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.294322457031</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1747.294322457031</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1457.87715242007</v>
+        <v>834.295653117641</v>
       </c>
       <c r="X13" t="n">
-        <v>1229.887601522053</v>
+        <v>606.3061022196237</v>
       </c>
       <c r="Y13" t="n">
-        <v>1041.495291998935</v>
+        <v>385.5135230760935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>733.658398959387</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.8644509357071</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>699.9282680078002</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>549.8116285954643</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>401.8985350130713</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.396704050342</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.396704050342</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.712215844455</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.295045807494</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.305494909477</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.512915765947</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597622</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036841</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556311</v>
+        <v>194.8007783998307</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925218</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925218</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>297.8113689946115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,7 +6224,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434708</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155639</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032295</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.62299597371</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804956</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2020.199042352915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1731.123815697113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1476.439327491226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.022157454265</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.022157454265</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>966.2295783107353</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.377770716073</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4415877881661</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881661</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.586715463569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2015.98525048651</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1726.910023830708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1472.225535624821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1182.80836558786</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>954.8188146898428</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.0262355463127</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>198.0274703142537</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,7 +7345,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597644</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038364</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614412</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>411.963121559762</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F46" t="n">
-        <v>265.0731740618517</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.29185303620983</v>
+        <v>378.7585491187122</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238047</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767748</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034045</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146349</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.07626692420797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729138</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>84.87195475607707</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.1847295890519</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822892</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9259388694753988</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.8640922513197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.1398665102882</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.11969353038617</v>
+        <v>46.45968844823417</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.31058222398315</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182154</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>38.13892827624219</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864943</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610381</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194214</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G46" t="n">
-        <v>136.2749052347517</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912652.7920400017</v>
+        <v>912652.792040002</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993041.823696785</v>
+        <v>993041.8236967853</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>998513.6880604548</v>
+        <v>998513.6880604549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787486</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="D2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="E2" t="n">
-        <v>386954.4379713446</v>
+        <v>386954.4379713449</v>
       </c>
       <c r="F2" t="n">
         <v>421406.880109966</v>
@@ -26329,31 +26329,31 @@
         <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="I2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="J2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="J2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185147</v>
+        <v>143114.1392185151</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051388</v>
+        <v>166521.3471051385</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115301</v>
+        <v>37377.32855115307</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848937</v>
+        <v>43782.40655848947</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10457.96732947516</v>
@@ -26439,10 +26439,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214699</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1095375.88016837</v>
       </c>
       <c r="C6" t="n">
-        <v>233368.8655592231</v>
+        <v>233368.865559223</v>
       </c>
       <c r="D6" t="n">
         <v>233368.8655592228</v>
       </c>
       <c r="E6" t="n">
-        <v>147288.6092612077</v>
+        <v>147078.6450173628</v>
       </c>
       <c r="F6" t="n">
-        <v>144192.8488254329</v>
+        <v>144146.9438298676</v>
       </c>
       <c r="G6" t="n">
-        <v>300905.1104909856</v>
+        <v>300870.3725655502</v>
       </c>
       <c r="H6" t="n">
-        <v>312072.3467265648</v>
+        <v>312037.6088011291</v>
       </c>
       <c r="I6" t="n">
-        <v>312072.3467265651</v>
+        <v>312037.6088011291</v>
       </c>
       <c r="J6" t="n">
-        <v>94541.14432928742</v>
+        <v>94506.40640385181</v>
       </c>
       <c r="K6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011291</v>
       </c>
       <c r="L6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011293</v>
       </c>
       <c r="M6" t="n">
-        <v>274695.0181754119</v>
+        <v>274660.2802499761</v>
       </c>
       <c r="N6" t="n">
-        <v>268289.9401680756</v>
+        <v>268255.2022426397</v>
       </c>
       <c r="O6" t="n">
-        <v>309049.0487493402</v>
+        <v>309014.3108239045</v>
       </c>
       <c r="P6" t="n">
-        <v>312072.3467265648</v>
+        <v>312037.608801129</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086465</v>
+        <v>981.388327808647</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,37 +26963,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012567</v>
+        <v>122.3935669012571</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>178.7569625173595</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063539</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>173.220395155292</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.12596194139272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>197.2854761230498</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.1631217737097</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>23.12461809608028</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>165.9818511994174</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.4191799035212</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>195.4452200494739</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.770518235993296e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.827164546535093e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485644</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508986</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307175</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472605</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216964</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857416</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898378</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294399</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615129</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895582</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188514</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196942</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596469</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202549</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625641</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845323</v>
+        <v>219.8517740430769</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147132</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>195.766670591093</v>
+        <v>620.3452877431806</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205465</v>
+        <v>497.8817840205468</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071842</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697581</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691784</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570599</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929608</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826894</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8877650506842</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040313</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276244</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517092</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584689</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932469</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077532</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062434</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151087</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215657</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116372</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458959</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457668</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625139</v>
+        <v>77.7177401210586</v>
       </c>
       <c r="N12" t="n">
-        <v>546.77606803138</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>53.17042614664861</v>
+        <v>477.7490432987362</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062163</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211627</v>
+        <v>192.8390133211629</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936561</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701821</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882111</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190453</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998338</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>164.33338527081</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409637</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
